--- a/item_Analysis.Tables_tab.xlsx
+++ b/item_Analysis.Tables_tab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbievannuland/Documents/GitHub/SPP-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addiew/Documents/SPP-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928CB0D-E186-B349-A516-E16B2DB8E902}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="460" windowWidth="19840" windowHeight="16100" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="15300" yWindow="460" windowWidth="19840" windowHeight="15940" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOA200, other, ldt" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="SOA1200, other, naming" sheetId="8" r:id="rId7"/>
     <sheet name="SOA1200, first, naming" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="67">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -668,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1805,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2928,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="251" zoomScalePageLayoutView="251" workbookViewId="0">
@@ -4015,7 +4016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -5194,17 +5195,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -5329,8 +5330,8 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
+      <c r="B2" s="4">
+        <v>1.941E-2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>35</v>
@@ -5391,8 +5392,8 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
+      <c r="B3" s="4">
+        <v>3.2259999999999997E-2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -5456,8 +5457,8 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
+      <c r="B4" s="4">
+        <v>3.3579999999999999E-2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
@@ -5518,8 +5519,8 @@
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
+      <c r="B5" s="4">
+        <v>3.3660000000000002E-2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>35</v>
@@ -5574,8 +5575,8 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
+      <c r="B6" s="4">
+        <v>3.4689999999999999E-2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
@@ -5694,8 +5695,8 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
+      <c r="B9" s="4">
+        <v>3.6630000000000003E-2</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
@@ -5747,8 +5748,8 @@
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
+      <c r="B10" s="4">
+        <v>3.4909999999999997E-2</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -5797,8 +5798,8 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
+      <c r="B11" s="4">
+        <v>3.6670000000000001E-2</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>35</v>
@@ -6186,8 +6187,8 @@
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
+      <c r="B27" s="4">
+        <v>4.1209999999999997E-2</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>40</v>
@@ -6288,10 +6289,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -8071,7 +8072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9179,7 +9180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
